--- a/CIM_V4/src/Cim/Cim.Test/AddressMap_New.xlsx
+++ b/CIM_V4/src/Cim/Cim.Test/AddressMap_New.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\김선관\Dev_Source\kimsungwan\CIM_V4\src\Cim\Cim.Test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\김선관\Dev_Source\data-collector\CIM_V4\src\Cim\Cim.Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A19D956F-0873-44AE-9046-6282DE6F7356}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EDA6796-FA55-4E81-870C-9CE0A6077C27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29130" yWindow="360" windowWidth="21600" windowHeight="11385" xr2:uid="{3ED658FE-AD30-4BE6-BE5F-0F310F5FDE93}"/>
+    <workbookView xWindow="29100" yWindow="390" windowWidth="23820" windowHeight="15135" xr2:uid="{3ED658FE-AD30-4BE6-BE5F-0F310F5FDE93}"/>
   </bookViews>
   <sheets>
-    <sheet name="Controller" sheetId="1" r:id="rId1"/>
+    <sheet name="Controller1" sheetId="1" r:id="rId1"/>
     <sheet name="lami" sheetId="2" r:id="rId2"/>
     <sheet name="stack" sheetId="3" r:id="rId3"/>
     <sheet name="taping" sheetId="4" r:id="rId4"/>
@@ -508,7 +508,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
